--- a/data/wide_join.xlsx
+++ b/data/wide_join.xlsx
@@ -5482,7 +5482,7 @@
         <v>2117.6</v>
       </c>
       <c r="O96">
-        <v>6131.2</v>
+        <v>6131.200000000001</v>
       </c>
     </row>
     <row r="97">
